--- a/Прил_2_ОЗ_Канцтовары-M1.xlsx
+++ b/Прил_2_ОЗ_Канцтовары-M1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik0war\Downloads\Новая папка\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2EA8C31-C2CA-4890-9C08-B6B3E2F960EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EEBF2038-7947-4AC5-ACB0-79F9A72D327E}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="8970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <sheet name="Pickup point" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -635,8 +629,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -781,7 +775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -995,23 +989,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B57776-42C7-40A2-A433-651705192E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1711,7 +1717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -1752,19 +1758,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C439C9-78A4-463C-82D6-927F7EAA3826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -1792,7 +1801,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1862,7 +1871,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -1924,19 +1933,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A209DD-B1F4-4A0B-9517-AA56DDC83F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -1962,7 +1977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2014,7 +2029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2066,7 +2081,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2092,7 +2107,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2170,7 +2185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2196,7 +2211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2228,116 +2243,119 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F9DD72-3296-4054-9CDE-1F757C503541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>196</v>
       </c>
